--- a/tests/6/div/6_div_SS.xlsx
+++ b/tests/6/div/6_div_SS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/6/div/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/tests/6/div/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2AE9EF-8586-8F46-AD5F-F5162C5DB183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FF99A-D62B-A64E-9E5F-4BDD7CC2436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="3420" windowWidth="17480" windowHeight="13180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -211,7 +211,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -11905,7 +11905,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
